--- a/main/resource/线上学习-关系2_1678766818257.xlsx
+++ b/main/resource/线上学习-关系2_1678766818257.xlsx
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,931 +448,931 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>字典顺序看不懂</t>
+          <t>最大元 最小元 极大元 极小元在没画哈斯图的情况下不能准确判断</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>第三点较难理解</t>
+          <t>极大元，极小元，最大元，最小元不太会求。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>上下确界</t>
+          <t>不理解最大最小元，极大极小元</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>字典顺序不理解</t>
+          <t>最大元最小元极大元极小元判断还不太懂</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>概念还是很不清楚 需要巩固</t>
+          <t>最大元 最小元那部分概念不清</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>每一个有限全序集都是良序集</t>
+          <t>难理解闭包的定义，闭包定理4.5.2的第三个证明不太清楚。哈斯图的画法不太清楚，极大元和最大元的区别，极小元和最小元的区别不清楚。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>我不明白第9个问题。</t>
+          <t>最大元，最小元，极大元，极小元</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>在偏序关系的哈斯图中，两个点之间没有直接的连线，是否说明这两个元素不可比？</t>
+          <t>感觉视频里对极大元极小元最大元最小元的文字叙述难以理解，但如果从图中就十分好判断</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>概念记忆不清晰，总体良好。</t>
+          <t>等价类和等价关系的关系比较模糊最小（大）和极小（大）部分以及上界下界不清楚</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>难求商集</t>
+          <t>哈斯图还不太懂不太会找最大最小元和极大极小元</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>偏序关系的概念以及其表示符不太理解</t>
+          <t>感觉最大下界和最小上界比较难理解（目前只掌握了通过哈斯图来理解）</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>偏序集概念不清楚</t>
+          <t>最大元最小元极大元极小元好抽象，能不能举个例子还有偏序集 全序集 良序集分不太清</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>极大元极小元最小元最大元这些不是很会求</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>定义4.7.4看不太明白</t>
+          <t>极大，极小，最大和最小的概念没区分明白</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>求偏序集中的一系列东西</t>
+          <t>求极大元，极小元，最小元，最大元</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>最大元最小元极大元极小元好抽象，能不能举个例子还有偏序集 全序集 良序集分不太清</t>
+          <t>覆盖，极大极小元，最大最小元不理解</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>最小,极小</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>偏序关系和哈斯图不太理解</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>偏序,关系</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>偏序关系实在是有些不理解&amp;nbsp; &amp;nbsp;希望老师上课讲这部分可以慢一些</t>
+          <t>极大元，极小元和最大员，最小元不太懂</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>等价,商集</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>老师您好，我对讲解中的一些哈斯图的用法不太明白。</t>
+          <t>等价类，商集概念不太清晰</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>等价,商集</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>偏序关系这个知识点不太懂</t>
+          <t>商集的定义理解，对于一个子集的上下界不太会找</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>等价,商集</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>求最大元不大清楚。</t>
+          <t>等价类不是很懂</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>等价,商集</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>偏序</t>
+          <t>商集不明白是什么呀，不能理解。确定等价也有一定困难</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>等价,商集</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>学习完毕，无</t>
+          <t>最大元，最小元为什么不存在，所谓的小于等于究竟是什么等价类到底如何理解，划分有哪些依据</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>等价,商集</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>怎么画出美观简洁的哈斯图</t>
+          <t>等价类比较难理解</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>等价,商集</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>商集和偏序集</t>
+          <t>等价类和商集</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>等价,商集</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>关系图有点不理解性质概括发表示关系简单</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>偏序,关系</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>基本理解</t>
+          <t>商集不是很懂</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>划分,等价关系</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>同余关系</t>
+          <t>等价关系和划分为什么是一一对应的；良序集和全序集的关系不理解</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>划分,等价关系</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>偏序集那块有点难搞懂</t>
+          <t>闭包差一点</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>划分,等价关系</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>划分 怎么找等价关系</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>划分,等价关系</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>传递闭包还有划分的等价关系那里不是很清楚</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>偏序,关系</t>
+          <t>划分,等价关系</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>划分不太理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>划分,等价关系</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>等价关系为什么和划分一一对应；最大最小元和上下界的区别在哪</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>划分,等价关系</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>最大元 最小元 极大元 极小元在没画哈斯图的情况下不能准确判断</t>
+          <t>为什么笛卡尔积的并集就是所求的等价关系？</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>划分,等价关系</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>极大元，极小元，最大元，最小元不太会求。</t>
+          <t>几种闭包还是不太懂</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>划分,等价关系</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>不理解最大最小元，极大极小元</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>极小,最小</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>最大元最小元极大元极小元判断还不太懂</t>
+          <t>闭包概念的理解</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>最大元 最小元那部分概念不清</t>
+          <t>字典顺序看不懂</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>必然是极大元，极小元，不过最后理解了如果有最大元，那这个最大元是它的上确界吗？</t>
+          <t>知识点太多有点容易搞乱</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>偏序关系 极大元 极小元不理解</t>
+          <t>第三点较难理解</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>最大元，最小元，极大元，极小元</t>
+          <t>字典顺序不理解</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>商集怎么求的，怎么通过哈斯图判断最大最小元、极大极小元、上确界下确界</t>
+          <t>概念还是很不清楚 需要巩固</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>感觉视频里对极大元极小元最大元最小元的文字叙述难以理解，但如果从图中就十分好判断</t>
+          <t>概念太多了记不住。。有点分不清上下确界</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>哈斯图还不太懂不太会找最大最小元和极大极小元</t>
+          <t>关係可以变得非常複雜</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>极大元极小元最小元最大元这些不是很会求</t>
+          <t>每一个有限全序集都是良序集</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>极大，极小，最大和最小的概念没区分明白</t>
+          <t>无大问题</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>偏序集中的极大元、极小元</t>
+          <t>我不明白第9个问题。</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>求极大元，极小元，最小元，最大元</t>
+          <t>概念记忆不清晰，总体良好。</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>覆盖，极大极小元，最大最小元不理解</t>
+          <t>什么是单元集</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>极小,最小</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>极大元，极小元和最大员，最小元不太懂</t>
+          <t>难求商集</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>太多,关系</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>等价,商集</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>等价类，商集概念不太清晰</t>
+          <t>定义4.7.4看不太明白</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>等价,商集</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>等价类不是很懂</t>
+          <t>概念太多记不住</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>等价,商集</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>商集不明白是什么呀，不能理解。确定等价也有一定困难</t>
+          <t>老师您好，我对讲解中的一些哈斯图的用法不太明白。</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>等价,商集</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>等价类的偏序关系处不太理解</t>
+          <t>求最大元不大清楚。</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>等价,商集</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>最大元，最小元为什么不存在，所谓的小于等于究竟是什么等价类到底如何理解，划分有哪些依据</t>
+          <t>学习完毕，无</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>等价,商集</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>等价类比较难理解</t>
+          <t>怎么画出美观简洁的哈斯图</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>等价,商集</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>等价类和商集</t>
+          <t>关系图有点不理解性质概括发表示关系简单</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>太多,关系</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>基本理解</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>等价关系和划分为什么是一一对应的；良序集和全序集的关系不理解</t>
+          <t>同余关系</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>划分 怎么找等价关系</t>
+          <t>可列</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>关係可以变得非常複雜</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>无大问题</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>太多,关系</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>商集的定义理解，对于一个子集的上下界不太会找</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>下界,等价关系</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>什么是单元集</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>确界,极小</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>等价类和等价关系的关系比较模糊最小（大）和极小（大）部分以及上界下界不清楚</t>
+          <t>上下确界</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>确界,极小</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>划分不太理解</t>
+          <t>必然是极大元，极小元，不过最后理解了如果有最大元，那这个最大元是它的上确界吗？</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>确界,极小</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>感觉最大下界和最小上界比较难理解（目前只掌握了通过哈斯图来理解）</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>下界,等价关系</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>等价关系为什么和划分一一对应；最大最小元和上下界的区别在哪</t>
+          <t>商集怎么求的，怎么通过哈斯图判断最大最小元、极大极小元、上确界下确界</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>偏序方面不是太理解，上界下界不理解</t>
+          <t>偏序关系 极大元 极小元不理解</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>为什么笛卡尔积的并集就是所求的等价关系？</t>
+          <t>在偏序关系的哈斯图中，两个点之间没有直接的连线，是否说明这两个元素不可比？</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>可列</t>
+          <t>偏序关系的概念以及其表示符不太理解</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>下界,等价关系</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>商集不是很懂</t>
+          <t>偏序集概念不清楚</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>等价类的偏序关系处不太理解</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>太多,记不住</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>知识点太多有点容易搞乱</t>
+          <t>求偏序集中的一系列东西</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>太多,记不住</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>概念太多了记不住。。有点分不清上下确界</t>
+          <t>偏序关系和哈斯图不太理解</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>太多,记不住</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>概念太多记不住</t>
+          <t>偏序关系实在是有些不理解&amp;nbsp; &amp;nbsp;希望老师上课讲这部分可以慢一些</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>偏序方面不是太理解，上界下界不理解</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>闭包,区别</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>闭包差一点</t>
+          <t>偏序关系这个知识点不太懂</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>闭包,区别</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>难理解闭包的定义，闭包定理4.5.2的第三个证明不太清楚。哈斯图的画法不太清楚，极大元和最大元的区别，极小元和最小元的区别不清楚。</t>
+          <t>偏序</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>闭包,区别</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>传递闭包还有划分的等价关系那里不是很清楚</t>
+          <t>偏序集中的极大元、极小元</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>闭包,区别</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>几种闭包还是不太懂</t>
+          <t>商集和偏序集</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>闭包,区别</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1384,12 +1384,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>闭包,区别</t>
+          <t>偏序,关系</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>闭包概念的理解</t>
+          <t>偏序集那块有点难搞懂</t>
         </is>
       </c>
     </row>

--- a/main/resource/线上学习-关系2_1678766818257.xlsx
+++ b/main/resource/线上学习-关系2_1678766818257.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,24 +436,960 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>上界,下界</t>
+          <t>最小,关系</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>等价类和等价关系的关系比较模糊最小（大）和极小（大）部分以及上界下界不清楚</t>
+          <t>不会判断最小元这些概念以及关系个数不知道怎么算</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>上界,下界</t>
+          <t>最小,关系</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>等价关系和划分为什么是一一对应的；良序集和全序集的关系不理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>字典顺序看不懂</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>知识点太多有点容易搞乱</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>第三点较难理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>最大元 最小元那部分概念不清</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>上下确界</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>难理解闭包的定义，闭包定理4.5.2的第三个证明不太清楚。哈斯图的画法不太清楚，极大元和最大元的区别，极小元和最小元的区别不清楚。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>字典顺序不理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>概念还是很不清楚 需要巩固</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>划分 怎么找等价关系</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>关係可以变得非常複雜</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>每一个有限全序集都是良序集</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>无大问题</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>我不明白第9个问题。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>商集的定义理解，对于一个子集的上下界不太会找</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>在偏序关系的哈斯图中，两个点之间没有直接的连线，是否说明这两个元素不可比？</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>概念记忆不清晰，总体良好。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>什么是单元集</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>难求商集</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>商集怎么求的，怎么通过哈斯图判断最大最小元、极大极小元、上确界下确界</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>感觉视频里对极大元极小元最大元最小元的文字叙述难以理解，但如果从图中就十分好判断</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>等价类和等价关系的关系比较模糊最小（大）和极小（大）部分以及上界下界不清楚</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>定义4.7.4看不太明白</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>传递闭包还有划分的等价关系那里不是很清楚</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>划分不太理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>感觉最大下界和最小上界比较难理解（目前只掌握了通过哈斯图来理解）</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>等价关系为什么和划分一一对应；最大最小元和上下界的区别在哪</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>最大元，最小元为什么不存在，所谓的小于等于究竟是什么等价类到底如何理解，划分有哪些依据</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>最大元最小元极大元极小元好抽象，能不能举个例子还有偏序集 全序集 良序集分不太清</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>偏序关系实在是有些不理解&amp;nbsp; &amp;nbsp;希望老师上课讲这部分可以慢一些</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>偏序方面不是太理解，上界下界不理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>老师您好，我对讲解中的一些哈斯图的用法不太明白。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>为什么笛卡尔积的并集就是所求的等价关系？</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>求最大元不大清楚。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>学习完毕，无</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>怎么画出美观简洁的哈斯图</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>关系图有点不理解性质概括发表示关系简单</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>基本理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>同余关系</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>偏序集那块有点难搞懂</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>可列</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>商集不是很懂</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>最小,关系</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>最大元 最小元 极大元 极小元在没画哈斯图的情况下不能准确判断</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>极大元，极小元，最大元，最小元不太会求。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>不理解最大最小元，极大极小元</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>最大元最小元极大元极小元判断还不太懂</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>必然是极大元，极小元，不过最后理解了如果有最大元，那这个最大元是它的上确界吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>最大元，最小元，极大元，极小元</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>哈斯图还不太懂不太会找最大最小元和极大极小元</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>极大元极小元最小元最大元这些不是很会求</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>极大，极小，最大和最小的概念没区分明白</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>求极大元，极小元，最小元，最大元</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>覆盖，极大极小元，最大最小元不理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>极小,最小</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>极大元，极小元和最大员，最小元不太懂</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>等价,商集</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>等价类，商集概念不太清晰</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>等价,商集</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>等价类不是很懂</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>等价,商集</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>商集不明白是什么呀，不能理解。确定等价也有一定困难</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>等价,商集</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>等价类的偏序关系处不太理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>等价,商集</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>等价类比较难理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>等价,商集</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>等价类和商集</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>闭包,深刻</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>闭包差一点</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>闭包,深刻</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>几种闭包还是不太懂</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>闭包,深刻</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>对闭包的理解不够深刻。偏序集的最大元不理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>闭包,深刻</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>闭包概念的理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>偏序关系 极大元 极小元不理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>偏序关系的概念以及其表示符不太理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>偏序集概念不清楚</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>求偏序集中的一系列东西</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>偏序关系和哈斯图不太理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>偏序关系这个知识点不太懂</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>偏序</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>偏序集中的极大元、极小元</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>偏序,关系</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>商集和偏序集</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>太多,记不住</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>概念太多了记不住。。有点分不清上下确界</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>太多,记不住</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>概念太多记不住</t>
         </is>
       </c>
     </row>
